--- a/translation/languages/zh_cn.xlsx
+++ b/translation/languages/zh_cn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\text\translate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\translation\languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C977B0-0DBA-4975-9FB9-72E5B51FD80E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA83BC3C-7EE5-48D4-8EB4-7BC73C305715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3098,7 +3098,7 @@
   <dimension ref="A1:G601"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/translation/languages/zh_cn.xlsx
+++ b/translation/languages/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\translation\languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B71540AC-AEC0-497A-A44E-611C1AB96F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD61E999-6238-4CF0-95B6-0582839CFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="929">
   <si>
     <t>g_lang.ask_if_reinit.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4067,9 +4067,6 @@
       <c r="G21" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
@@ -4483,9 +4480,6 @@
       <c r="G45" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="46" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
@@ -4587,9 +4581,6 @@
       <c r="G51" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="H51" s="4" t="s">
-        <v>334</v>
-      </c>
     </row>
     <row r="52" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
@@ -4672,9 +4663,6 @@
       <c r="G56" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
@@ -4796,9 +4784,6 @@
       <c r="G63" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="H63" s="4" t="s">
-        <v>359</v>
-      </c>
     </row>
     <row r="64" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
@@ -4870,9 +4855,6 @@
       <c r="G67" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H67" s="4" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="68" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -4885,9 +4867,6 @@
         <v>521</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4921,9 +4900,6 @@
         <v>514</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -5023,9 +4999,6 @@
       <c r="G76" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="77" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -5038,9 +5011,6 @@
         <v>521</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5079,9 +5049,7 @@
       <c r="G79" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H79" s="4"/>
       <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -5100,9 +5068,7 @@
       <c r="G80" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="H80" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="H80" s="4"/>
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -5145,9 +5111,7 @@
       <c r="G83" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H83" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="H83" s="4"/>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -5166,9 +5130,7 @@
       <c r="G84" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H84" s="4"/>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -5202,9 +5164,7 @@
       <c r="G86" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H86" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="H86" s="4"/>
       <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -5223,9 +5183,7 @@
       <c r="G87" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="H87" s="4"/>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -5268,9 +5226,7 @@
       <c r="G90" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="H90" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="H90" s="4"/>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -5289,9 +5245,7 @@
       <c r="G91" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H91" s="4"/>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -5310,9 +5264,7 @@
       <c r="G92" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>594</v>
-      </c>
+      <c r="H92" s="4"/>
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
@@ -5331,9 +5283,7 @@
       <c r="G93" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H93" s="4"/>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -5439,9 +5389,7 @@
       <c r="G100" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="H100" s="4" t="s">
-        <v>593</v>
-      </c>
+      <c r="H100" s="4"/>
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
@@ -5460,9 +5408,7 @@
       <c r="G101" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H101" s="4"/>
       <c r="J101" s="4"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
@@ -5481,9 +5427,7 @@
       <c r="G102" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="H102" s="4" t="s">
-        <v>594</v>
-      </c>
+      <c r="H102" s="4"/>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
@@ -5502,9 +5446,7 @@
       <c r="G103" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H103" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="H103" s="4"/>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
@@ -5523,9 +5465,7 @@
       <c r="G104" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="H104" s="4" t="s">
-        <v>600</v>
-      </c>
+      <c r="H104" s="4"/>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
@@ -5553,9 +5493,7 @@
       <c r="G106" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="H106" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="H106" s="4"/>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -5635,9 +5573,7 @@
       <c r="G112" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="H112" s="4" t="s">
-        <v>602</v>
-      </c>
+      <c r="H112" s="4"/>
       <c r="J112" s="4"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -6048,9 +5984,7 @@
       <c r="G142" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H142" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H142" s="4"/>
       <c r="J142" s="4"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
@@ -6069,9 +6003,7 @@
       <c r="G143" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="H143" s="4" t="s">
-        <v>493</v>
-      </c>
+      <c r="H143" s="4"/>
       <c r="J143" s="4"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
@@ -6749,9 +6681,7 @@
       <c r="G193" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H193" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="H193" s="4"/>
       <c r="J193" s="4"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
@@ -7020,9 +6950,7 @@
       <c r="G213" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H213" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H213" s="4"/>
       <c r="J213" s="4"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
@@ -7083,9 +7011,7 @@
       <c r="G217" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H217" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="H217" s="4"/>
       <c r="J217" s="4"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
@@ -7104,9 +7030,7 @@
       <c r="G218" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H218" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H218" s="4"/>
       <c r="J218" s="4"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
@@ -7245,9 +7169,7 @@
       <c r="G228" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H228" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="H228" s="4"/>
       <c r="J228" s="4"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
@@ -7292,9 +7214,7 @@
       <c r="G231" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H231" s="4" t="s">
-        <v>300</v>
-      </c>
+      <c r="H231" s="4"/>
       <c r="J231" s="4"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
@@ -7339,9 +7259,7 @@
       <c r="G234" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H234" s="4" t="s">
-        <v>511</v>
-      </c>
+      <c r="H234" s="4"/>
       <c r="J234" s="4"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -7490,9 +7408,7 @@
       <c r="G245" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H245" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H245" s="4"/>
       <c r="J245" s="4"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
@@ -7553,9 +7469,7 @@
       <c r="G249" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H249" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="H249" s="4"/>
       <c r="J249" s="4"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
@@ -7574,9 +7488,7 @@
       <c r="G250" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H250" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H250" s="4"/>
       <c r="J250" s="4"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
@@ -7715,9 +7627,7 @@
       <c r="G260" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="H260" s="4" t="s">
-        <v>314</v>
-      </c>
+      <c r="H260" s="4"/>
       <c r="J260" s="4"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
@@ -8006,9 +7916,7 @@
       <c r="G282" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H282" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H282" s="4"/>
       <c r="J282" s="4"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
@@ -8027,9 +7935,7 @@
       <c r="G283" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="H283" s="4" t="s">
-        <v>493</v>
-      </c>
+      <c r="H283" s="4"/>
       <c r="J283" s="4"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
@@ -8206,9 +8112,7 @@
       <c r="G295" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H295" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="H295" s="4"/>
       <c r="J295" s="4"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
@@ -8295,9 +8199,7 @@
       <c r="G301" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H301" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="H301" s="4"/>
       <c r="J301" s="4"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
@@ -8384,9 +8286,7 @@
       <c r="G307" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H307" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="H307" s="4"/>
       <c r="J307" s="4"/>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.2">
@@ -8473,9 +8373,7 @@
       <c r="G313" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H313" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="H313" s="4"/>
       <c r="J313" s="4"/>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.2">
@@ -8520,9 +8418,7 @@
       <c r="G316" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H316" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="H316" s="4"/>
       <c r="J316" s="4"/>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.2">
@@ -8541,9 +8437,7 @@
       <c r="G317" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H317" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H317" s="4"/>
       <c r="J317" s="4"/>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.2">
@@ -8562,9 +8456,7 @@
       <c r="G318" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="H318" s="4" t="s">
-        <v>168</v>
-      </c>
+      <c r="H318" s="4"/>
       <c r="J318" s="4"/>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.2">
@@ -8615,9 +8507,7 @@
       <c r="G321" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H321" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="H321" s="4"/>
       <c r="J321" s="4"/>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.2">
@@ -8636,9 +8526,7 @@
       <c r="G322" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H322" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="H322" s="4"/>
       <c r="J322" s="4"/>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.2">
@@ -8683,9 +8571,7 @@
       <c r="G325" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H325" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="H325" s="4"/>
       <c r="J325" s="4"/>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.2">
@@ -8704,9 +8590,7 @@
       <c r="G326" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H326" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H326" s="4"/>
       <c r="J326" s="4"/>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
@@ -8725,9 +8609,7 @@
       <c r="G327" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H327" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="H327" s="4"/>
       <c r="J327" s="4"/>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
@@ -8778,9 +8660,7 @@
       <c r="G330" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H330" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="H330" s="4"/>
       <c r="J330" s="4"/>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
@@ -8799,9 +8679,7 @@
       <c r="G331" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H331" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="H331" s="4"/>
       <c r="J331" s="4"/>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
@@ -8846,9 +8724,7 @@
       <c r="G334" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H334" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="H334" s="4"/>
       <c r="J334" s="4"/>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
@@ -8867,9 +8743,7 @@
       <c r="G335" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H335" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H335" s="4"/>
       <c r="J335" s="4"/>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
@@ -8888,9 +8762,7 @@
       <c r="G336" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="H336" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="H336" s="4"/>
       <c r="J336" s="4"/>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
@@ -8941,9 +8813,7 @@
       <c r="G339" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H339" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="H339" s="4"/>
       <c r="J339" s="4"/>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
@@ -8962,9 +8832,7 @@
       <c r="G340" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H340" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="H340" s="4"/>
       <c r="J340" s="4"/>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
@@ -9009,9 +8877,7 @@
       <c r="G343" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H343" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="H343" s="4"/>
       <c r="J343" s="4"/>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.2">
@@ -9030,9 +8896,7 @@
       <c r="G344" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="H344" s="4" t="s">
-        <v>490</v>
-      </c>
+      <c r="H344" s="4"/>
       <c r="J344" s="4"/>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.2">
@@ -9099,9 +8963,7 @@
       <c r="G348" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="H348" s="4" t="s">
-        <v>171</v>
-      </c>
+      <c r="H348" s="4"/>
       <c r="J348" s="4"/>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.2">
@@ -9120,9 +8982,7 @@
       <c r="G349" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="H349" s="4" t="s">
-        <v>172</v>
-      </c>
+      <c r="H349" s="4"/>
       <c r="J349" s="4"/>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.2">
@@ -9491,9 +9351,7 @@
       <c r="G377" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="H377" s="4" t="s">
-        <v>239</v>
-      </c>
+      <c r="H377" s="4"/>
       <c r="J377" s="4"/>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.2">
@@ -9547,9 +9405,7 @@
       <c r="G381" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="H381" s="4" t="s">
-        <v>824</v>
-      </c>
+      <c r="H381" s="4"/>
       <c r="J381" s="4"/>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.2">
@@ -9682,9 +9538,7 @@
       <c r="G391" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="H391" s="4" t="s">
-        <v>250</v>
-      </c>
+      <c r="H391" s="4"/>
       <c r="J391" s="4"/>
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.2">
@@ -9729,9 +9583,7 @@
       <c r="G394" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H394" s="4" t="s">
-        <v>511</v>
-      </c>
+      <c r="H394" s="4"/>
       <c r="J394" s="4"/>
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.2">
@@ -9850,9 +9702,7 @@
       <c r="G402" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H402" s="4" t="s">
-        <v>91</v>
-      </c>
+      <c r="H402" s="4"/>
       <c r="J402" s="4"/>
     </row>
     <row r="403" spans="1:10" x14ac:dyDescent="0.2">
@@ -9871,9 +9721,7 @@
       <c r="G403" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H403" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="H403" s="4"/>
       <c r="J403" s="4"/>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
@@ -10028,9 +9876,7 @@
       <c r="G414" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H414" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="H414" s="4"/>
       <c r="J414" s="4"/>
     </row>
     <row r="415" spans="1:10" x14ac:dyDescent="0.2">
@@ -10244,9 +10090,7 @@
       <c r="G431" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="H431" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="H431" s="4"/>
       <c r="J431" s="4"/>
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.2">

--- a/translation/languages/zh_cn.xlsx
+++ b/translation/languages/zh_cn.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E_game\minecraft\客户端\多版本隔离\.minecraft\versions\1.20.3\saves\GlobalShop_v3\datapacks\GlobalShop_v3\translation\languages\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD61E999-6238-4CF0-95B6-0582839CFC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E686D3E-7241-4D7C-92A6-9ADB1D6B66F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="937">
   <si>
     <t>g_lang.ask_if_reinit.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3244,12 +3244,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全球商店已经初始化了</t>
+    <t>g_lang.item_frame.expire_time.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.2</t>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.3</t>
+  </si>
+  <si>
+    <t>g_lang.item_frame.expire_time.4</t>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>改为</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>display_images\zh_cn\g_lang.item_frame.expire_time.png</t>
   </si>
 </sst>
 </file>
@@ -3665,7 +3693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BCC84E5-621A-4D4C-80FE-0993A9D0C53C}">
-  <dimension ref="A1:J581"/>
+  <dimension ref="A1:J586"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -3738,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>927</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -7259,7 +7287,9 @@
       <c r="G234" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="H234" s="4"/>
+      <c r="H234" s="4" t="s">
+        <v>511</v>
+      </c>
       <c r="J234" s="4"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
@@ -12131,6 +12161,70 @@
         <v>758</v>
       </c>
       <c r="I581" s="2"/>
+    </row>
+    <row r="582" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A582" s="1">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A583" s="1">
+        <v>582</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="E583" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="G583" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="H583" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A584" s="1">
+        <v>583</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="G584" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="H584" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A585" s="1">
+        <v>584</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="G585" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="H585" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A586" s="1">
+        <v>585</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="G586" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>934</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J581">
@@ -12344,6 +12438,7 @@
     <hyperlink ref="E185" r:id="rId204" xr:uid="{0F2DA7BA-38A2-42E1-92C1-BC707B31FBB4}"/>
     <hyperlink ref="E188" r:id="rId205" xr:uid="{C9C342B2-FA0D-4DCD-9292-0EE0C08868CB}"/>
     <hyperlink ref="E205" r:id="rId206" xr:uid="{18AE095E-B08B-4420-B2F6-4A7014749E11}"/>
+    <hyperlink ref="E583" r:id="rId207" xr:uid="{C4B03873-9EB5-4D5C-8D1D-858BB74ADC3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -12396,7 +12491,7 @@
         <v>493</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
       <c r="F2"/>
     </row>
